--- a/loaded_influencer_data/pargolkhazaei/pargolkhazaei_video.xlsx
+++ b/loaded_influencer_data/pargolkhazaei/pargolkhazaei_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7417256398788005128</t>
         </is>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71600</v>
+        <v>71500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         <v>0.007338028169014085</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008450704225352</v>
+        <v>1.007042253521127</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,25 +558,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7412986047421811975</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4200000</v>
+        <v>4300000</v>
       </c>
       <c r="C3" t="n">
-        <v>376800</v>
+        <v>379200</v>
       </c>
       <c r="D3" t="n">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>39700</v>
+        <v>40100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.009190476190476</v>
+        <v>8.855534883720932</v>
       </c>
       <c r="I3" t="n">
-        <v>8.971428571428572</v>
+        <v>8.818604651162792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03776190476190476</v>
+        <v>0.03693023255813953</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9325581395348836</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7431502690904968456</t>
         </is>
@@ -619,16 +619,16 @@
         <v>4600000</v>
       </c>
       <c r="C4" t="n">
-        <v>383300</v>
+        <v>384200</v>
       </c>
       <c r="D4" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>41300</v>
+        <v>41500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -636,19 +636,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.342065217391305</v>
+        <v>8.361608695652174</v>
       </c>
       <c r="I4" t="n">
-        <v>8.332608695652175</v>
+        <v>8.352173913043478</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.009456521739130435</v>
+        <v>0.009434782608695652</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8978260869565217</v>
+        <v>0.9021739130434782</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -662,169 +662,169 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pargolkhazaei/video/7489690387909577992</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6155</v>
+      </c>
+      <c r="C5" t="n">
+        <v>593</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Make him do what I say! #foryoupage #formal #year12 #fyp #school #trendingvideo #year12formal</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9.861900893582455</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9.634443541835907</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2274573517465475</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.503655564581641</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7486062360331832584</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2755</v>
-      </c>
-      <c r="C5" t="n">
-        <v>212</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4460</v>
+      </c>
+      <c r="C6" t="n">
+        <v>244</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Last sports day!
 #sportsday #foryoupage #school #teamwork #sunglasseschallenge #teamwork</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>8.166969147005444</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.695099818511797</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4718693284936479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1451905626134301</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H6" t="n">
+        <v>5.874439461883408</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.47085201793722</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4035874439461883</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1121076233183857</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7484919383027059986</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>3698</v>
-      </c>
-      <c r="C6" t="n">
-        <v>157</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5432</v>
+      </c>
+      <c r="C7" t="n">
+        <v>192</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Nacific cleansing balm 😻😻
 @네시픽 Nacific Official @NACIFIC US
 #kbeauty #viralskincare #fyp #love</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>4.380746349378042</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.245538128718226</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1352082206598161</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2163331530557058</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H7" t="n">
+        <v>3.645066273932254</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.53460972017673</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1104565537555228</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2393225331369661</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7483847405842992391</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9854</v>
-      </c>
-      <c r="C7" t="n">
-        <v>553</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Where the bitches?</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5.662675055814898</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.611934239902578</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.05074081591231987</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2029632636492795</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pargolkhazaei/video/7483468070313397511</t>
-        </is>
-      </c>
       <c r="B8" t="n">
-        <v>8126</v>
+        <v>11500</v>
       </c>
       <c r="C8" t="n">
-        <v>341</v>
+        <v>586</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -833,2137 +833,2187 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Where the bitches?</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5.139130434782609</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.095652173913043</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pargolkhazaei/video/7483468070313397511</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9328</v>
+      </c>
+      <c r="C9" t="n">
+        <v>359</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Get to know me while I study ! #trending #school #gtkm #foryoupage #viralvideo #viral #trendingvideo</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>4.257937484617278</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.196406596111248</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.06153088850603003</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2092050209205021</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H9" t="n">
+        <v>3.902229845626072</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.848627787307032</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.05360205831903946</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2036878216123499</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7483065929081883912</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>304600</v>
-      </c>
-      <c r="D9" t="n">
-        <v>268</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>76800</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="B10" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>318000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>278</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>79700</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>juulis lip plusher does the trick every time!
 #lipfiller #lipplumper #juulis #lips #trending #foryoupage</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>12.19472</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.184</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.01072</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="H10" t="n">
+        <v>11.78807407407407</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.77777777777778</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0102962962962963</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.951851851851852</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7482724662212971784</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>39000</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>509</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>81</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>During the Amazon Spring Day Sale (March 21-25), you get 15% off, plus an additional 10% off with the discount code : T4NFCOUQ</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1.312820512820513</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1.305128205128205</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.007692307692307693</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.2076923076923077</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7481227418796150023</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>873800</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>193800</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>149</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>16700</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Eww why can you hear me singing #trending #makeup #funny #fyp #beauty #lipsync #viralvideo #foryoupage</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>22.19604028381781</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>22.17898832684825</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.01705195696955825</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>1.911192492561227</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7480451762688658706</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>9620</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>251</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>28</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>OBSESSED is an understatement!
 New viral jellyfish glow lip tints by milktouch
 @Milk Touch Global Official</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2.661122661122661</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>2.609147609147609</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.05197505197505198</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>0.2910602910602911</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7480139200281595143</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>14700</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>639</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>16</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Diffusing is the bane of my existence #foryoupage #hair #curlyhair #fyp #diffusecurlyhair #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>4.360544217687075</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>4.346938775510204</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.01360544217687075</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.108843537414966</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7479745006912294151</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>11200</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>596</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>60</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>I promise forever xx #foryoupage #formal #trending #makeup #hair #dress #girlssupportgirls #viral</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>5.4375</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>5.321428571428571</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.1160714285714286</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.5357142857142857</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7478670620645920018</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>30300</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>2077</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>294</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Grwm. #foryoupage #teamwork #fyp #girlssupportgirls #trending #trendingvideo #viralvideo #makeup</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>6.877887788778877</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>6.854785478547855</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.0231023102310231</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>0.9702970297029703</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7477924950121139464</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>7716</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>264</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>11</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>14</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Im obsessed with the new @allkinds lip range! 💋THANKYOU #foryoupage #girlssupportgirls #teamwork #fyp</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>3.564022809745982</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>3.421461897356143</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.1425609123898393</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.1814411612234318</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7477564557498551560</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>15200</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>877</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>9</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>88</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Do i let you go? #foryoupage #girlssupportgirls #teamwork #fyp #foryoupage #trending #love #lipsync #viral</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>5.828947368421052</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>5.769736842105263</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.05921052631578948</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>0.5789473684210527</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7477163069978791186</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>10800</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>589</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>56</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>I get it #trending #foryoupage #fyp #girlssupportgirls #teamwork #love #lipsync #viral #trendingvideo</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>5.462962962962963</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>5.453703703703703</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.009259259259259259</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>0.5185185185185185</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7476969952046615816</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>11100</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>536</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>38</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Help a girl out #teamworkmakesthedreamwork #viraltiktok #trending #foryoupage #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>4.990990990990991</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>4.828828828828828</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.1621621621621621</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>0.3423423423423423</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7476838111679384840</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>31400</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>2615</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>12</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>309</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>GRWM before i get my hair done #teamworkmakesthedreamwork #viraltiktok</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>8.36624203821656</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>8.328025477707007</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.03821656050955414</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>0.9840764331210191</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7476435638007401736</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>131700</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>7528</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>28</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>112</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>#teamworkmakesthedreamwork #viraltiktok #trending #foryoupage #girlssupportgirls #teamwork #fyp</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>5.737281700835232</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>5.716021260440394</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.02126044039483675</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.08504176157934701</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7476413969608019207</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>5361</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>136</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>5</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>7</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Hands down the most fun I've had using a face mask.
 @FULLY Skincare truly has the most fun products!</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>2.630106323447118</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>2.536840141764596</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.09326618168252192</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>0.1305726543555307</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7476079017339227410</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>5089</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>121</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>14</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Fully Green Tomato Clay Mask Cleanser @FULLY Skincare
 #fullygreentomato #PorefectMask #fullypartner #fully</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>2.475928473177441</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>2.377677343289448</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.09825112988799373</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.2751031636863824</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7475248244130417938</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>18200</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>1435</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>38</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>106</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>🍒🍒 #girlssupportgirls #teamwork #trendingvideo #viralvideo #fyp #foryoupage #trending #viraltiktok</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>8.093406593406593</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>7.884615384615384</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.2087912087912088</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>0.5824175824175823</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7474952453478206726</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>16400</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>1186</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>9</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>161</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Get ready with me!! #girlssupportgirls #teamwork #fyp #trendingvideo #viralvideo #makeup #makeuptutorial</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>7.286585365853658</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>7.23170731707317</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.05487804878048781</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>0.9817073170731707</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7474552818574167351</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>10400</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>679</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>50</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>26</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>17 laps around the sun #girlssupportgirls #teamwork #lipsync #viralvideo #trendingvideo #birthday #foryoupage</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>7.009615384615385</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>6.528846153846154</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.4807692307692308</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>0.25</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7473439277376900360</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>17400</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>687</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>34</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Hate throat infections #girlssupportgirls #teamwork #fyp #viralvideo #trending #sick #infection #tonsils</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>3.971264367816092</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>3.948275862068965</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.02298850574712644</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>0.1954022988505747</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7473067415677504775</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>276000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>13200</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>29</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>369</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Really had to happen on school photo day #dysonairwrap #hair #curls #girlssupportgirls #viralvideo</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>4.793115942028985</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>4.782608695652174</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.01050724637681159</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>0.133695652173913</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7472329765328899336</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>15800</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>473</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>8</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>40</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Take out my dyson curls x #girlssupportgirls #teamwork #hair #dysonairwrap #pincurls #blonde #brunette</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>3.044303797468355</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>2.993670886075949</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.05063291139240507</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>0.2531645569620253</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7471942309563731218</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>537500</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>91500</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>59</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>7985</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>I like money 💸💸 #girlssupportgirls #lipsync #teamwork #foryoupage #lipstickchallenge #makeup #fyp</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>17.03423255813953</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>17.02325581395349</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.01097674418604651</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>1.485581395348837</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7471603372253007122</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>161700</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>15500</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>48</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>3225</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Makeup tutorial! #teamwork #girlssupportgirls #makeup #tutorial #makeuptutorial #love #foryoupage</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>9.615337043908474</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>9.5856524427953</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.02968460111317254</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>1.99443413729128</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7471387768044670215</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>33000</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>2704</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>13</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>301</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>When im kissing him #teamwork #girlssupportgirls #lipsync #makeup #hair #outfit #valentinesday #love</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>8.233333333333333</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>8.193939393939393</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.0393939393939394</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>0.9121212121212122</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7471238816255216904</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>31300</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>1494</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>12</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>119</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>@Vincent #teamwork #food #teamwork #girlssupportgirls #foryoupage #viralvideo #fatties</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>4.81150159744409</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>4.773162939297125</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.03833865814696485</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>0.3801916932907348</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7470499637988691207</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>280500</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>5122</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>15</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>233</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Waxing eyebrows&gt;&gt; #teamwork #girlssupportgirls #foryoupage #waxing #eyebrows #love #fyp</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>1.831372549019608</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>1.82602495543672</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.0053475935828877</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>0.08306595365418895</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7469762158620937490</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>12900</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>560</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>6</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>100</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>GRWM MAKEUP TUTORIAL ASMR #girlssupportgirls #teamwork #asmr #makeup #foryoupage #fyp #love</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>4.387596899224806</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>4.341085271317829</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.04651162790697674</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>0.7751937984496124</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7469372441953897746</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>17500</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>785</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>95</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Ootd inspo #viralvideo #hair #updo #ootd #outfit #hairtutorial #love #girlssupportgirls #teamwork #fyp</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>4.537142857142857</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>4.485714285714286</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.05142857142857143</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>0.5428571428571428</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7469203414967192839</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>15100</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>466</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>32</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Ootd inspo #viralvideo #hair #updo #ootd #outfit #hairtutorial #love #girlssupportgirls #teamwork #fyp</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>3.119205298013245</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>3.086092715231788</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.03311258278145696</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>0.2119205298013245</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-09</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7468969366823062792</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>201800</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>17800</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>31</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>629</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Get in #fypage #viralvideo #girlssupportgirls #teamwork #senior #trendingsong #year12 #foryoupage</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>8.835976214073341</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>8.820614469772051</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.0153617443012884</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>0.3116947472745292</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7468612980356271367</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>63500</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>7921</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>23</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>1577</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Little makup tutorial💄@CeraVe @MCoBeauty @Tower 28 Beauty @Rare Beauty @Maybelline NY</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>12.51023622047244</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>12.4740157480315</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.03622047244094488</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>2.483464566929134</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7468187198752361736</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>12000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>398</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>13</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Shit apology #fypage #viralvideo #foryoupage #girlssupportgirls #teamwork #trending #annapaul</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>3.341666666666666</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>3.316666666666666</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.025</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>0.1083333333333333</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7467875013471784199</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>620600</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>27100</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>36</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>1619</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Till i die! @Benefit Cosmetics @BenefitCosmeticsCA @Benefit Cosmetics Italy #foryoupage #lips</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>4.372542700612311</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>4.366741862713504</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.005800837898807605</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>0.2608765710602642</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7467118785971981586</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>329800</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>18700</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>33</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>3095</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Caotic slick back tutorial🍒 #foryoupage #hair #slickback #bun #tutorial #viral #viralvideo #trending</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>5.680109157064888</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>5.670103092783505</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.01000606428138266</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>0.93844754396604</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7467080734734404872</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>13500</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>576</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>9</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>64</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>The dress is everything! #ootd #foryoupage #makeup #grwm #trending #trendingsong #outfit #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>4.333333333333334</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>0.4740740740740741</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7466043926072413448</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>622800</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>102200</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>203</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>15200</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>GRWM asmr edition #foryoupage #makeup #grwm #asmr #trending #trendingsong #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>16.44235709698138</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>16.40976236351959</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.03259473346178549</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>2.440590879897238</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7465627866252856583</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>24500</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>797</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>7</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>60</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>GRWM asmr edition #foryoupage #makeup #grwm #asmr #trending #trendingsong #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>3.281632653061224</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>3.253061224489796</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.02857142857142857</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>0.2448979591836735</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7465259043053915399</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>20700</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>831</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>50</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Bitter sweet feeling! #ootd #outfit #foryoupage #school #year12 #fyp #lastfirstday #highschool #grade12</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>4.06280193236715</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I47" t="n">
         <v>4.014492753623188</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.04830917874396135</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>0.2415458937198068</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7464546405332290824</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>16700</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>641</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>4</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>51</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>OOTD🩵 #outfutideas #outfit #ootd #jewelry #foryoupage #viralvideo #viral #trending #trendingsong #fyp</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H48" t="n">
         <v>3.862275449101797</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I48" t="n">
         <v>3.838323353293413</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.02395209580838323</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>0.3053892215568862</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7464247806404873479</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>217100</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>27300</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>77</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2076</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>2025 school supplies haul📚✏️!!! #school #year12 #trendingvideo #foryoupage #teamwork #girls</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>12.61031782588669</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>12.5748502994012</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.03546752648549056</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>0.9562413634269922</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@pargolkhazaei/video/7463071122846862599</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>11600</v>
-      </c>
-      <c r="C49" t="n">
-        <v>415</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>29</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>2025 school supplies haul📚✏️!!! #school #year12 #trendingvideo #foryoupage #teamwork #girls</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3.612068965517242</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.577586206896552</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@pargolkhazaei/video/7462269500939930888</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>11600</v>
       </c>
       <c r="C50" t="n">
+        <v>415</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>29</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025 school supplies haul📚✏️!!! #school #year12 #trendingvideo #foryoupage #teamwork #girls</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3.612068965517242</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.577586206896552</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pargolkhazaei/video/7462269500939930888</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C51" t="n">
         <v>320</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>9</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>37</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Healthy and high protein breakfast avocado and egg on toast! #healthy #protein #breakfast #food #trending #cafe</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>2.836206896551724</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>2.758620689655173</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.07758620689655173</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L51" t="n">
         <v>0.3189655172413793</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
